--- a/public/xlsx/banner-marcas-spmk.xlsx
+++ b/public/xlsx/banner-marcas-spmk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesa_rodrigueze/Documents/vmlyr/doc/trade/xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesa_rodrigueze/Documents/vmlyr/sites/catalogo/public/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E1041E-547F-A544-A283-B296C63467FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31F5773-C5B2-9C46-A059-2D32E723EBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Corona</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1659028284/Banners/SKUS-corona-banner-720x720_hdycyy.png</t>
   </si>
   <si>
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1659028551/Banners/covers-CORONA-banner-1920-x-860_ol2ele.png</t>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>ibu</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1663093544/Banners/SKUS-corona-banner-720x720_a4y2qj.png</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -799,6 +799,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1116,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1137,40 +1138,40 @@
   <sheetData>
     <row r="1" spans="1:28" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
@@ -1609,14 +1610,14 @@
         <v>42</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>5</v>
@@ -1625,16 +1626,16 @@
         <v>6</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" s="23">
         <v>19</v>
@@ -1658,19 +1659,19 @@
     </row>
     <row r="11" spans="1:28" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>5</v>
@@ -1679,16 +1680,16 @@
         <v>6</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11" s="23">
         <v>20</v>
@@ -1713,7 +1714,7 @@
     <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>5</v>
@@ -1728,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="24" t="s">
@@ -1763,7 +1764,7 @@
     <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
@@ -1788,7 +1789,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L13" s="23">
         <v>10</v>
@@ -1812,17 +1813,17 @@
     </row>
     <row r="14" spans="1:28" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>5</v>
@@ -1837,10 +1838,10 @@
         <v>5</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="23">
         <v>55</v>
@@ -1864,17 +1865,17 @@
     </row>
     <row r="15" spans="1:28" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>5</v>
@@ -1883,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" s="23">
         <v>15</v>
@@ -1916,19 +1917,19 @@
     </row>
     <row r="16" spans="1:28" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>5</v>
@@ -1937,16 +1938,16 @@
         <v>6</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" s="23">
         <v>36</v>
@@ -1971,7 +1972,7 @@
     <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1983,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>5</v>
@@ -1992,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" s="23">
         <v>18</v>
@@ -2017,7 +2018,7 @@
     <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2026,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="23">
         <v>14.5</v>
@@ -2062,17 +2063,17 @@
     </row>
     <row r="19" spans="1:28" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>5</v>
@@ -2081,19 +2082,19 @@
         <v>6</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2112,19 +2113,19 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" ht="75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>5</v>
@@ -2139,10 +2140,10 @@
         <v>5</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" s="23">
         <v>10</v>
@@ -2164,21 +2165,21 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="1:28" ht="75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>5</v>
@@ -2187,16 +2188,16 @@
         <v>6</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21" s="23">
         <v>18</v>
@@ -2221,12 +2222,12 @@
     <row r="22" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>5</v>
@@ -2235,7 +2236,7 @@
         <v>21</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>5</v>
@@ -2244,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L22" s="23">
         <v>16</v>
@@ -2268,17 +2269,17 @@
     </row>
     <row r="23" spans="1:28" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>108</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>5</v>
@@ -2296,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L23" s="23">
         <v>19</v>
@@ -2320,17 +2321,17 @@
     </row>
     <row r="24" spans="1:28" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>5</v>
@@ -2339,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>5</v>
@@ -2348,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L24" s="23">
         <v>15</v>
@@ -2372,29 +2373,29 @@
     </row>
     <row r="25" spans="1:28" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="F25" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>118</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J25" s="26" t="s">
         <v>15</v>
@@ -32040,32 +32041,32 @@
     <hyperlink ref="D3" r:id="rId4" xr:uid="{3430F944-52DA-48CE-9E07-565F747174EA}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{CBB49A6A-17F8-462B-B590-A8C91BA8C423}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{A4CF00BC-B1CD-4E00-B237-65C916956FCF}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{50062E97-B160-45E2-A01D-552CA3AF0399}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{F02FAFDB-C56E-4EBC-AB02-646D1E1BFF90}"/>
-    <hyperlink ref="C19" r:id="rId9" xr:uid="{41E55D3C-1E1F-4DB7-A4D3-F017B07DA4F5}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{6C730D0F-8378-4632-AD55-61DE12024DCD}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{7B5A25FF-7B4E-42C8-BB15-E2867BE85D8A}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{508D56B8-9D11-4923-BE5E-133586CEFB20}"/>
-    <hyperlink ref="C9" r:id="rId13" xr:uid="{C0B914BF-B7A2-4446-922F-24775453CC88}"/>
-    <hyperlink ref="D9" r:id="rId14" xr:uid="{3F955450-FF9E-40F2-A28E-723BEB7887EE}"/>
-    <hyperlink ref="D11" r:id="rId15" xr:uid="{DA256B2E-0C17-4F99-9FE7-D545C2795B38}"/>
-    <hyperlink ref="C11" r:id="rId16" xr:uid="{4D52F2AD-253F-4F73-BF11-C9349144C2DD}"/>
-    <hyperlink ref="C14" r:id="rId17" xr:uid="{A5B1FA2A-224E-4C82-9691-70404783EA61}"/>
-    <hyperlink ref="D14" r:id="rId18" xr:uid="{7F41B279-1C9D-4AB8-B584-D82A75A9F4D0}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{E793C095-F84A-4E75-A5CF-381BD3ED01E6}"/>
-    <hyperlink ref="C20" r:id="rId20" xr:uid="{72C66F6E-987B-41E2-96B0-C8F1304C1B2D}"/>
-    <hyperlink ref="D16" r:id="rId21" xr:uid="{824665AB-C7CF-4208-B9D0-CFDC9DE34C76}"/>
-    <hyperlink ref="C16" r:id="rId22" xr:uid="{00BDC53F-1224-4CC4-9A8A-13CDEA00A0DC}"/>
-    <hyperlink ref="D15" r:id="rId23" xr:uid="{B539822E-5DB5-46D1-9D2D-6DD70418E0C3}"/>
-    <hyperlink ref="C15" r:id="rId24" xr:uid="{8BB7C330-928B-4F5B-8327-39EC61315A8C}"/>
-    <hyperlink ref="D23" r:id="rId25" xr:uid="{8DAE8D4A-DDA8-4DCB-B134-BAC9AD0958C2}"/>
-    <hyperlink ref="C23" r:id="rId26" xr:uid="{D00528EE-C945-465A-8B82-C23133DCFD00}"/>
-    <hyperlink ref="D24" r:id="rId27" xr:uid="{ECA4F1AA-2A06-4D38-BA1B-5B1E721CA606}"/>
-    <hyperlink ref="C24" r:id="rId28" xr:uid="{AAA0FA91-356C-4277-82C1-2C2B12CACA30}"/>
-    <hyperlink ref="D25" r:id="rId29" xr:uid="{2839B2CF-F2BE-4F2B-8B89-3D8289795293}"/>
-    <hyperlink ref="C25" r:id="rId30" xr:uid="{455539C1-12CF-49E6-A513-5F97D3636ABB}"/>
-    <hyperlink ref="C21" r:id="rId31" xr:uid="{D2B9B61A-65E9-40A6-8F7D-495FCAA11944}"/>
-    <hyperlink ref="D21" r:id="rId32" xr:uid="{C2A79B7D-0308-46C0-98DE-9B153DF3D1EC}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{F02FAFDB-C56E-4EBC-AB02-646D1E1BFF90}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{41E55D3C-1E1F-4DB7-A4D3-F017B07DA4F5}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{6C730D0F-8378-4632-AD55-61DE12024DCD}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{7B5A25FF-7B4E-42C8-BB15-E2867BE85D8A}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{508D56B8-9D11-4923-BE5E-133586CEFB20}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{C0B914BF-B7A2-4446-922F-24775453CC88}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{3F955450-FF9E-40F2-A28E-723BEB7887EE}"/>
+    <hyperlink ref="D11" r:id="rId14" xr:uid="{DA256B2E-0C17-4F99-9FE7-D545C2795B38}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{4D52F2AD-253F-4F73-BF11-C9349144C2DD}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{A5B1FA2A-224E-4C82-9691-70404783EA61}"/>
+    <hyperlink ref="D14" r:id="rId17" xr:uid="{7F41B279-1C9D-4AB8-B584-D82A75A9F4D0}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{E793C095-F84A-4E75-A5CF-381BD3ED01E6}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{72C66F6E-987B-41E2-96B0-C8F1304C1B2D}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{824665AB-C7CF-4208-B9D0-CFDC9DE34C76}"/>
+    <hyperlink ref="C16" r:id="rId21" xr:uid="{00BDC53F-1224-4CC4-9A8A-13CDEA00A0DC}"/>
+    <hyperlink ref="D15" r:id="rId22" xr:uid="{B539822E-5DB5-46D1-9D2D-6DD70418E0C3}"/>
+    <hyperlink ref="C15" r:id="rId23" xr:uid="{8BB7C330-928B-4F5B-8327-39EC61315A8C}"/>
+    <hyperlink ref="D23" r:id="rId24" xr:uid="{8DAE8D4A-DDA8-4DCB-B134-BAC9AD0958C2}"/>
+    <hyperlink ref="C23" r:id="rId25" xr:uid="{D00528EE-C945-465A-8B82-C23133DCFD00}"/>
+    <hyperlink ref="D24" r:id="rId26" xr:uid="{ECA4F1AA-2A06-4D38-BA1B-5B1E721CA606}"/>
+    <hyperlink ref="C24" r:id="rId27" xr:uid="{AAA0FA91-356C-4277-82C1-2C2B12CACA30}"/>
+    <hyperlink ref="D25" r:id="rId28" xr:uid="{2839B2CF-F2BE-4F2B-8B89-3D8289795293}"/>
+    <hyperlink ref="C25" r:id="rId29" xr:uid="{455539C1-12CF-49E6-A513-5F97D3636ABB}"/>
+    <hyperlink ref="C21" r:id="rId30" xr:uid="{D2B9B61A-65E9-40A6-8F7D-495FCAA11944}"/>
+    <hyperlink ref="D21" r:id="rId31" xr:uid="{C2A79B7D-0308-46C0-98DE-9B153DF3D1EC}"/>
+    <hyperlink ref="C10" r:id="rId32" xr:uid="{29EA7364-8050-7043-BF5A-DBF80DF41BE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/xlsx/banner-marcas-spmk.xlsx
+++ b/public/xlsx/banner-marcas-spmk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesa_rodrigueze/Documents/vmlyr/sites/catalogo/public/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31F5773-C5B2-9C46-A059-2D32E723EBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C700A595-ED7B-AB49-87EF-1EA2D12A5188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,9 +391,6 @@
     <t>copa</t>
   </si>
   <si>
-    <t>marca</t>
-  </si>
-  <si>
     <t>varieda</t>
   </si>
   <si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1663093544/Banners/SKUS-corona-banner-720x720_a4y2qj.png</t>
+  </si>
+  <si>
+    <t>MARCA</t>
   </si>
 </sst>
 </file>
@@ -1117,9 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1138,40 +1136,40 @@
   <sheetData>
     <row r="1" spans="1:28" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
@@ -1611,7 +1609,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>43</v>
